--- a/resources/checklist/checklist_26.xlsx
+++ b/resources/checklist/checklist_26.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\MarketingAdvisor\resources\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -200,8 +200,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;ad_text&gt; 가장 마지막에 "*준법감시 심의필 제[심의번호]호(YYYY.MM.DD~YYYY.MM.DD)
-*수신거부: 080-800-8114 (무료)"를 반드시 넣으세요.</t>
+    <t>&lt;ad_text&gt; 가장 마지막에 "*준법감시 심의필 제[심의번호]호(YYYY.MM.DD~YYYY.MM.DD) *수신거부: 080-800-8114 (무료)"를 반드시 넣으세요.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1125,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
